--- a/biology/Virologie/Vie_non_cellulaire/Vie_non_cellulaire.xlsx
+++ b/biology/Virologie/Vie_non_cellulaire/Vie_non_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acytota
 La vie non cellulaire existe sans une structure cellulaire. Ce terme présume la classification scientifique phylogénétique des virus comme des formes de vie.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auto-assemblage viral a des implications pour l'étude de l'origine de la vie, car il donne plus de crédit à l'hypothèse que la vie pourrait avoir commencé comme molécules organiques s'auto-assemblant.
 La question de la vie sans structure cellulaire revint à nouveau au premier plan avec la découverte en 2003 que le large et complexe Mimivirus peut faire des protéines qui prennent part à la synthèse de protéines. Cette découverte suggère la possibilité que certains virus peuvent avoir évolué à partir de formes plus anciennes qui pouvaient produire des protéines indépendamment d'une cellule hôte. Si c'est le cas, il put y avoir, à un certain moment, un domaine de vie virale.
@@ -548,7 +562,9 @@
           <t>Virus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En discutant les domaines de vie taxonomique, les termes Acytota ou Aphanobionta sont occasionnellement utilisés comme noms d'un royaume viral, domaine, ou empire. Le nom de vie cellulaire correspondant serait Cytota.
 Les organismes non cellulaires et la vie cellulaire seraient les deux seules subdivisions de vie terrestre - aussi connus comme organismes terrestres, Biota, Naturae ou Vitae.
@@ -580,7 +596,9 @@
           <t>Viroïde</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les viroïdes sont des pathogènes des plantes qui consistent en une petite longueur d'ADN circulaire simple-brin, sans le manteau protéique typique des virus.
 L'ARN viroïde ne code pas les protéines.
